--- a/src/main/resources/BlancRe.xlsx
+++ b/src/main/resources/BlancRe.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFCDCB1-E8D7-4B29-9C10-6C8C5F34A21E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ввоз" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Брестская область</t>
   </si>
@@ -51,12 +52,15 @@
   </si>
   <si>
     <t>с startDate по endDate</t>
+  </si>
+  <si>
+    <t>с  startYearDate по endYearDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,6 +407,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -438,6 +459,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -613,22 +651,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="18" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -650,7 +688,7 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -688,7 +726,7 @@
       </c>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -699,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>

--- a/src/main/resources/BlancRe.xlsx
+++ b/src/main/resources/BlancRe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFCDCB1-E8D7-4B29-9C10-6C8C5F34A21E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB77DEB4-FDDF-4674-89AA-7B01DBA64487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,14 +47,14 @@
     <t>ВСЕГО реэкспорт из третьих стран, тонн</t>
   </si>
   <si>
+    <t>с startDate по endDate</t>
+  </si>
+  <si>
+    <t>с  startYearDate по endYearDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Информация
-ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о реэкспорте countryExport подкарантинной продукции  на основании данных выданных фитосанитарных сертификатов с  startDate по endDate     </t>
-  </si>
-  <si>
-    <t>с startDate по endDate</t>
-  </si>
-  <si>
-    <t>с  startYearDate по endYearDate</t>
+ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о реэкспорте countryExport  на основании данных выданных фитосанитарных сертификатов с  startDate по endDate     </t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -731,46 +731,46 @@
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>3</v>
